--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Madagascar\MDG_Master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chith\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBAB54CB-7BD9-467F-824A-4AFB573C43A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0F3CA-6470-43EF-89A6-5098DB665D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{85A6449B-F4E3-46B4-8632-093C589D9EB2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>lang_code</t>
   </si>
@@ -99,83 +99,139 @@
     <t>eff_dtimes</t>
   </si>
   <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>Caisse Nationale de Prévoyance Sociale (CNaPs)</t>
+    <t>eng</t>
   </si>
   <si>
     <t>REG</t>
   </si>
   <si>
-    <t>Place HO Chi Minh Ampefiloha</t>
-  </si>
-  <si>
-    <t>CUA ANTANANARIVO I</t>
-  </si>
-  <si>
-    <t>ANTANANARIVO RENIVOHITRA</t>
-  </si>
-  <si>
-    <t>AMBA1</t>
+    <t>now()</t>
   </si>
   <si>
     <t>John Doe</t>
   </si>
   <si>
-    <t>(GMT + 03:00) EAST AFRICA TIME</t>
-  </si>
-  <si>
-    <t>MDG</t>
-  </si>
-  <si>
-    <t>AMB1</t>
-  </si>
-  <si>
-    <t>now()</t>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Mario Speedwagon</t>
+  </si>
+  <si>
+    <t>Paige Turner</t>
+  </si>
+  <si>
+    <t>Walter Melon</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Bo</t>
+  </si>
+  <si>
+    <t>South BO</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>(GMT + 00:00) Greenwich Mean Time</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SOU</t>
+  </si>
+  <si>
+    <t>NCRA District Office - Bonthe Island, Bonthe</t>
+  </si>
+  <si>
+    <t>Bonthe Island</t>
+  </si>
+  <si>
+    <t>BON</t>
+  </si>
+  <si>
+    <t>NCRA District Office - Moyamba town</t>
+  </si>
+  <si>
+    <t>Moyamba town</t>
+  </si>
+  <si>
+    <t>MOY</t>
+  </si>
+  <si>
+    <t>NCRA District Office - Pujehun</t>
+  </si>
+  <si>
+    <t>Pujehun</t>
+  </si>
+  <si>
+    <t>PUJ</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Kenema</t>
+  </si>
+  <si>
+    <t>Kenema</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>EST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF4D5156"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5F6368"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -193,12 +249,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -265,40 +336,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,183 +720,493 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71412D05-FFCD-4108-94A6-C13A5B9272D2}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" customWidth="1"/>
-    <col min="15" max="15" width="13.26953125" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" customWidth="1"/>
-    <col min="17" max="18" width="10.1796875" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" customWidth="1"/>
-    <col min="20" max="20" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" customWidth="1"/>
+    <col min="15" max="15" width="22.90625" customWidth="1"/>
+    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="17" max="18" width="16.36328125" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" customWidth="1"/>
+    <col min="20" max="20" width="40" customWidth="1"/>
+    <col min="21" max="21" width="16.54296875" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>10000</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="10">
+        <v>7.9551790000000002</v>
+      </c>
+      <c r="I2" s="11">
+        <v>-11.740995</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="6">
+        <v>987656787</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="6">
+        <v>3</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O2" s="12">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="16">
+        <v>10001</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="19">
+        <v>7.525703</v>
+      </c>
+      <c r="I3" s="20">
+        <v>-12.503992</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="22">
+        <v>953476995</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="M3" s="16">
+        <v>3</v>
+      </c>
+      <c r="N3" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="O3" s="24">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="P3" s="24">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="R3" s="24">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S3" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="16">
+        <v>10002</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="20">
+        <v>8.1620509999999999</v>
+      </c>
+      <c r="I4" s="20">
+        <v>-12.435192000000001</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="22">
+        <v>934239083</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="6">
-        <v>-18.911320499999999</v>
-      </c>
-      <c r="I2" s="6">
-        <v>47.51845866</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="M4" s="16">
+        <v>3</v>
+      </c>
+      <c r="N4" s="24">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O4" s="24">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="R4" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="S4" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="16">
+        <v>10003</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="20">
+        <v>7.3562989999999999</v>
+      </c>
+      <c r="I5" s="20">
+        <v>-11.721064</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="22">
+        <v>937997757</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="8">
-        <v>987656787</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="M5" s="16">
+        <v>3</v>
+      </c>
+      <c r="N5" s="24">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="P5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="R5" s="24">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="16">
+        <v>10004</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="19">
+        <v>7.8632150000000003</v>
+      </c>
+      <c r="I6" s="20">
+        <v>-11.195717</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="22">
+        <v>987311749</v>
+      </c>
+      <c r="L6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M6" s="16">
         <v>3</v>
       </c>
-      <c r="N2" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O2" s="9">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0.375</v>
-      </c>
-      <c r="Q2" s="9">
+      <c r="N6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="P6" s="24">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>0.875</v>
+      </c>
+      <c r="R6" s="24">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R2" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="S2" s="9">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="10" t="b">
+      <c r="S6" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="X2" s="11" t="s">
-        <v>35</v>
+      <c r="X6" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chith\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B0F3CA-6470-43EF-89A6-5098DB665D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E25850-0F6A-40E1-96E9-1985AB596F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="87">
   <si>
     <t>lang_code</t>
   </si>
@@ -105,9 +105,6 @@
     <t>REG</t>
   </si>
   <si>
-    <t>now()</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>SLE</t>
   </si>
   <si>
-    <t>SOU</t>
-  </si>
-  <si>
     <t>NCRA District Office - Bonthe Island, Bonthe</t>
   </si>
   <si>
@@ -177,14 +171,128 @@
     <t>KEN</t>
   </si>
   <si>
-    <t>EST</t>
+    <t>NCRA District Office – Kailahun</t>
+  </si>
+  <si>
+    <t>Kailahun</t>
+  </si>
+  <si>
+    <t>KAI</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Kono</t>
+  </si>
+  <si>
+    <t>Kono</t>
+  </si>
+  <si>
+    <t>KON</t>
+  </si>
+  <si>
+    <t>NCRA HQ Office, 2 Walpole Street, Freetown</t>
+  </si>
+  <si>
+    <t>Walpole Street, Freetown</t>
+  </si>
+  <si>
+    <t>URB</t>
+  </si>
+  <si>
+    <t>NCRA Office – Kissy Road, Freetown</t>
+  </si>
+  <si>
+    <t>Kissy Road, Freetown</t>
+  </si>
+  <si>
+    <t>NCRA Office – King Harman Road, Freetown</t>
+  </si>
+  <si>
+    <t>King Harman Road, Freetown</t>
+  </si>
+  <si>
+    <t>NCRA Outlet – Lumley, Freetown</t>
+  </si>
+  <si>
+    <t>Lumley, Freetown</t>
+  </si>
+  <si>
+    <t>NCRA District Office, Waterloo</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>RUR</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Makeni</t>
+  </si>
+  <si>
+    <t>Makeni</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Magburaka</t>
+  </si>
+  <si>
+    <t>Magburaka</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Kabala</t>
+  </si>
+  <si>
+    <t>Kabala</t>
+  </si>
+  <si>
+    <t>KOI</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Falaba</t>
+  </si>
+  <si>
+    <t>Falaba</t>
+  </si>
+  <si>
+    <t>FAL</t>
+  </si>
+  <si>
+    <t>NCRA District Office – PortLoko</t>
+  </si>
+  <si>
+    <t>PortLoko</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Kambaia</t>
+  </si>
+  <si>
+    <t>Kambaia</t>
+  </si>
+  <si>
+    <t>KAM</t>
+  </si>
+  <si>
+    <t>NCRA District Office – Karene</t>
+  </si>
+  <si>
+    <t>Karene</t>
+  </si>
+  <si>
+    <t>KAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -196,7 +304,7 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -229,9 +337,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -245,11 +371,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -273,61 +399,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -336,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -348,71 +429,42 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="46" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -728,40 +780,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="22.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="18" width="16.36328125" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="17" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
     <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.54296875" customWidth="1"/>
-    <col min="22" max="22" width="10.81640625" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.90625" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -835,374 +887,1353 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" s="15" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>10000</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="8">
+        <v>7.9551790000000002</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-11.740995</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="10">
-        <v>7.9551790000000002</v>
-      </c>
-      <c r="I2" s="11">
-        <v>-11.740995</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="K2" s="11">
         <v>987656787</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="6">
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="11">
         <v>3</v>
       </c>
       <c r="N2" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="13">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="13">
         <v>0.375</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="13">
         <v>0.58333333333333337</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="15" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10001</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="D3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="13" t="b">
+      <c r="F3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="8">
+        <v>7.525703</v>
+      </c>
+      <c r="I3" s="9">
+        <v>-12.503992</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="11">
+        <v>953476995</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="11">
+        <v>3</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O3" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S3" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="X2" s="14" t="s">
+    </row>
+    <row r="4" spans="1:24" s="15" customFormat="1">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10002</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8.1620509999999999</v>
+      </c>
+      <c r="I4" s="9">
+        <v>-12.435192000000001</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="11">
+        <v>934239083</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O4" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="15" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10003</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="9">
+        <v>7.3562989999999999</v>
+      </c>
+      <c r="I5" s="9">
+        <v>-11.721064</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="11">
+        <v>937997757</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="11">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O5" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="15" customFormat="1">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10004</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="8">
+        <v>7.8632150000000003</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-11.195717</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="11">
+        <v>987311749</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="11">
+        <v>3</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O6" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="15" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10005</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8.1076800000000002</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-10.75146</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="11">
+        <v>987311749</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O7" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="15" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10006</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="8">
+        <v>8.7663290000000007</v>
+      </c>
+      <c r="I8" s="9">
+        <v>-10.890309999999999</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="11">
+        <v>987311749</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="11">
+        <v>3</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="15" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10007</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="18">
+        <v>8.4881598</v>
+      </c>
+      <c r="I9" s="19">
+        <v>-13.2364084</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="11">
+        <v>987656787</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="M9" s="11">
+        <v>3</v>
+      </c>
+      <c r="N9" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O9" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="14" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+    <row r="10" spans="1:24" s="15" customFormat="1">
+      <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="16">
-        <v>10001</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="B10" s="5">
+        <v>10008</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="19">
-        <v>7.525703</v>
-      </c>
-      <c r="I3" s="20">
-        <v>-12.503992</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="22">
+      <c r="E10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="21">
+        <v>8.4666999999999994</v>
+      </c>
+      <c r="I10" s="21">
+        <v>-13.2</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="11">
         <v>953476995</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="11">
+        <v>3</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O10" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="15" customFormat="1">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10009</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="18">
+        <v>8.4751952999999993</v>
+      </c>
+      <c r="I11" s="18">
+        <v>-13.2489594</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="11">
+        <v>934239083</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M11" s="11">
         <v>3</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N11" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O11" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P11" s="13">
         <v>0.375</v>
       </c>
-      <c r="O3" s="24">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="P3" s="24">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="Q3" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="R3" s="24">
+      <c r="Q11" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S11" s="13">
         <v>0.58333333333333337</v>
       </c>
-      <c r="S3" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="T3" s="17" t="s">
+      <c r="T11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="25" t="b">
+      <c r="V11" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="X3" s="21" t="s">
+    </row>
+    <row r="12" spans="1:24" s="15" customFormat="1">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10010</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="8">
+        <v>8.4844439999999999</v>
+      </c>
+      <c r="I12" s="9">
+        <v>-13.234444</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="11">
+        <v>937997757</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="11">
+        <v>3</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O12" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="15" customFormat="1">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="8">
+        <v>8.3266089999999995</v>
+      </c>
+      <c r="I13" s="19">
+        <v>-13.064501999999999</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="11">
+        <v>987311749</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="11">
+        <v>3</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O13" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="W13" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="15" customFormat="1">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10012</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="8">
+        <v>8.8719750000000008</v>
+      </c>
+      <c r="I14" s="19">
+        <v>-12.037556</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="11">
+        <v>987311749</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="11">
+        <v>3</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O14" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W14" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="15" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10013</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="9">
+        <v>8.717867</v>
+      </c>
+      <c r="I15" s="19">
+        <v>-11.951924999999999</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="11">
+        <v>987656787</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="M15" s="11">
+        <v>3</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O15" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="14" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
+    <row r="16" spans="1:24" s="15" customFormat="1">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16">
-        <v>10002</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="B16" s="20">
+        <v>10014</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="20">
-        <v>8.1620509999999999</v>
-      </c>
-      <c r="I4" s="20">
-        <v>-12.435192000000001</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="22">
+      <c r="E16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="9">
+        <v>9.5832999999999995</v>
+      </c>
+      <c r="I16" s="23">
+        <v>-11.55</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="11">
+        <v>953476995</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O16" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S16" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="15" customFormat="1">
+      <c r="A17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="20">
+        <v>10015</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="8">
+        <v>9.8552160000000004</v>
+      </c>
+      <c r="I17" s="9">
+        <v>-11.322184</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="11">
         <v>934239083</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="11">
+        <v>3</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="15" customFormat="1">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="20">
+        <v>10016</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="9">
+        <v>8.7660999999999998</v>
+      </c>
+      <c r="I18" s="9">
+        <v>-12.787000000000001</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="11">
+        <v>937997757</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M18" s="11">
         <v>3</v>
       </c>
-      <c r="N4" s="24">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="O4" s="24">
-        <v>9.375E-2</v>
-      </c>
-      <c r="P4" s="24">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="R4" s="24">
-        <v>0.625</v>
-      </c>
-      <c r="S4" s="24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T4" s="17" t="s">
+      <c r="N18" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O18" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="W4" s="25" t="b">
+      <c r="V18" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="W18" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="X4" s="21" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15" t="s">
+    <row r="19" spans="1:23" s="15" customFormat="1">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16">
-        <v>10003</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="B19" s="20">
+        <v>10017</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="20">
-        <v>7.3562989999999999</v>
-      </c>
-      <c r="I5" s="20">
-        <v>-11.721064</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="22">
-        <v>937997757</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="E19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="9">
+        <v>9.1166999999999998</v>
+      </c>
+      <c r="I19" s="9">
+        <v>-12.916700000000001</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="11">
+        <v>987311749</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M19" s="11">
         <v>3</v>
       </c>
-      <c r="N5" s="24">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="O5" s="24">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="P5" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="R5" s="24">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="S5" s="24">
+      <c r="N19" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O19" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q19" s="13">
         <v>0.70833333333333337</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="R19" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="25" t="b">
+      <c r="V19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="W19" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="X5" s="21" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
+    <row r="20" spans="1:23" s="15" customFormat="1">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="16">
-        <v>10004</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="B20" s="20">
+        <v>10018</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="19">
-        <v>7.8632150000000003</v>
-      </c>
-      <c r="I6" s="20">
-        <v>-11.195717</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="22">
+      <c r="E20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="9">
+        <v>9.1159400000000002</v>
+      </c>
+      <c r="I20" s="19">
+        <v>-12.94788</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="11">
         <v>987311749</v>
       </c>
-      <c r="L6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="16">
+      <c r="L20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="11">
         <v>3</v>
       </c>
-      <c r="N6" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="24">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="P6" s="24">
+      <c r="N20" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O20" s="13">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="R20" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="Q6" s="24">
-        <v>0.875</v>
-      </c>
-      <c r="R6" s="24">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="S6" s="24">
-        <v>0.75</v>
-      </c>
-      <c r="T6" s="17" t="s">
+      <c r="S20" s="13">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" s="25" t="b">
+      <c r="V20" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="W20" s="14" t="b">
         <v>1</v>
-      </c>
-      <c r="X6" s="21" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
